--- a/Data Files/data registrasi.xlsx
+++ b/Data Files/data registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asma.nasyith\git\katalon-taskfinal-Web-Asma-Karimah\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8A6EC-298B-4628-91D8-DF5CA427A00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11245950-7EDD-41E2-98F5-3A6AA3BB49F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6CBDACCD-BA80-4819-88C8-C72A53478C1A}"/>
+    <workbookView xWindow="380" yWindow="140" windowWidth="12000" windowHeight="9940" xr2:uid="{6CBDACCD-BA80-4819-88C8-C72A53478C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -69,9 +69,6 @@
     <t>yoyo</t>
   </si>
   <si>
-    <t>coti@gmail.com</t>
-  </si>
-  <si>
     <t>riva@mail.com</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>carrot juice</t>
+  </si>
+  <si>
+    <t>passworddetail</t>
+  </si>
+  <si>
+    <t>coti2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E09753-EE5E-4909-A7FE-F791D55DAC28}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,9 +488,10 @@
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,10 +504,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -514,10 +521,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -528,10 +538,13 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -542,10 +555,13 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -555,6 +571,9 @@
       </c>
       <c r="D5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02FC646-68E1-48AD-86C9-276D47617FA6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -583,22 +602,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
